--- a/Clash_Royal_Statistics.xlsx
+++ b/Clash_Royal_Statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nath Calderillo\Desktop\CHEPE\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nath Calderillo\Desktop\CHEPE\ChallengeClashRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D24FE-E99C-440F-AEC4-716C4ECD54CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4107D611-87E8-4402-8E44-846B3F5A54AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="6" xr2:uid="{C957B7F0-2E77-40C4-8A68-3AC367244033}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="2" xr2:uid="{C957B7F0-2E77-40C4-8A68-3AC367244033}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
     <sheet name="TypeCardVS" sheetId="4" r:id="rId6"/>
     <sheet name="SelectionCard" sheetId="6" r:id="rId7"/>
+    <sheet name="SelectionCardComplete" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TypeCardVS!$A$1:$C$15</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="237">
   <si>
     <t>Air Damage</t>
   </si>
@@ -369,12 +370,6 @@
     <t>Opcion</t>
   </si>
   <si>
-    <t>@attribute</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -613,6 +608,144 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>(15.0/11.0)</t>
+  </si>
+  <si>
+    <t>(8.0/5.0)</t>
+  </si>
+  <si>
+    <t>Mago_Electrico</t>
+  </si>
+  <si>
+    <t>(11.0/7.0)</t>
+  </si>
+  <si>
+    <t>Chispitas</t>
+  </si>
+  <si>
+    <t>(14.0/9.0)</t>
+  </si>
+  <si>
+    <t>Megaesbirrio</t>
+  </si>
+  <si>
+    <t>Dragon_Infernal</t>
+  </si>
+  <si>
+    <t>Sabueso_Lava</t>
+  </si>
+  <si>
+    <t>Guardias</t>
+  </si>
+  <si>
+    <t>Barbaros_Elite</t>
+  </si>
+  <si>
+    <t>(9.0/6.0)</t>
+  </si>
+  <si>
+    <t>Bandida</t>
+  </si>
+  <si>
+    <t>(7.0/4.0)</t>
+  </si>
+  <si>
+    <t>(15.0/12.0)</t>
+  </si>
+  <si>
+    <t>Cementerio</t>
+  </si>
+  <si>
+    <t>(4.0/1.0)</t>
+  </si>
+  <si>
+    <t>(12.0/8.0)</t>
+  </si>
+  <si>
+    <t>(5.0/2.0)</t>
+  </si>
+  <si>
+    <t>Megacaballero</t>
+  </si>
+  <si>
+    <t>Bruja_Nocturna</t>
+  </si>
+  <si>
+    <t>Ballesta</t>
+  </si>
+  <si>
+    <t>(28.0/22.0)</t>
+  </si>
+  <si>
+    <t>(3.0/2.0)</t>
+  </si>
+  <si>
+    <t>barbaros elite</t>
+  </si>
+  <si>
+    <t>megaesbirrio</t>
+  </si>
+  <si>
+    <t>guardias</t>
+  </si>
+  <si>
+    <t>dragon Infernal</t>
+  </si>
+  <si>
+    <t>bandida</t>
+  </si>
+  <si>
+    <t>sabueso Lava</t>
+  </si>
+  <si>
+    <t>principe oscuro</t>
+  </si>
+  <si>
+    <t>Principe</t>
+  </si>
+  <si>
+    <t>Minero</t>
+  </si>
+  <si>
+    <t>leñador</t>
+  </si>
+  <si>
+    <t>Sabueso Lava</t>
+  </si>
+  <si>
+    <t>Princesa</t>
+  </si>
+  <si>
+    <t>Minero+</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Duendes Lanzadardos</t>
+  </si>
+  <si>
+    <t>verdugo</t>
+  </si>
+  <si>
+    <t>lanzarocas</t>
+  </si>
+  <si>
+    <t>principe</t>
+  </si>
+  <si>
+    <t>Bruja Nocturna</t>
+  </si>
+  <si>
+    <t>cazador</t>
+  </si>
+  <si>
+    <t>chispitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">principe  </t>
   </si>
 </sst>
 </file>
@@ -861,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -887,7 +1020,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2554,7 +2686,7 @@
       <c r="A1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -4126,10 +4258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0DB4B-4BAB-43F8-B61A-BCAFDA1F9BF0}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4147,106 +4279,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -4264,18 +4396,18 @@
       <c r="I4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -4290,7 +4422,7 @@
       <c r="I5" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4298,6 +4430,12 @@
       <c r="B6" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>44</v>
       </c>
@@ -4310,7 +4448,7 @@
       <c r="I6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4318,8 +4456,17 @@
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>219</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>64</v>
@@ -4332,8 +4479,14 @@
       <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>215</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>67</v>
@@ -4349,8 +4502,15 @@
       <c r="F9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="24"/>
+      <c r="G9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
@@ -4359,14 +4519,14 @@
       <c r="F10" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="G10" t="s">
+        <v>216</v>
+      </c>
       <c r="H10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>112</v>
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4376,16 +4536,101 @@
       <c r="F11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>55</v>
+      <c r="G11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>99</v>
+      <c r="F12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4405,10 +4650,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>101</v>
@@ -4416,13 +4661,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -4431,18 +4676,18 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -4450,16 +4695,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>742</v>
@@ -4468,21 +4713,21 @@
         <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>742</v>
@@ -4491,15 +4736,15 @@
         <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -4507,13 +4752,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>75</v>
@@ -4521,16 +4766,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -4544,22 +4789,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
         <v>123</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>125</v>
       </c>
       <c r="G9">
         <v>-2</v>
@@ -4567,13 +4812,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10">
         <v>75</v>
@@ -4581,16 +4826,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -4604,22 +4849,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12">
         <v>-2</v>
@@ -4627,10 +4872,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
@@ -4638,13 +4883,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -4652,16 +4897,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4675,16 +4920,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4692,25 +4937,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17">
         <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H17">
         <v>-4</v>
@@ -4718,25 +4963,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18">
         <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H18">
         <v>-4</v>
@@ -4744,13 +4989,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -4758,22 +5003,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G20">
         <v>-2</v>
@@ -4781,22 +5026,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G21">
         <v>-4</v>
@@ -4804,10 +5049,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
@@ -4815,13 +5060,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4829,16 +5074,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E24">
         <v>1272</v>
@@ -4847,41 +5092,41 @@
         <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>1272</v>
       </c>
       <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4889,16 +5134,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -4907,55 +5152,55 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>108</v>
@@ -4963,13 +5208,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4977,22 +5222,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G32">
         <v>-4</v>
@@ -5000,16 +5245,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -5017,25 +5262,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34">
         <v>1056</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H34">
         <v>-3</v>
@@ -5043,19 +5288,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35">
         <v>1056</v>
@@ -5069,30 +5314,30 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -5100,13 +5345,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5114,16 +5359,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -5137,22 +5382,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G40">
         <v>-3</v>
@@ -5160,13 +5405,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
         <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -5180,27 +5425,27 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
         <v>106</v>
       </c>
       <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
         <v>138</v>
-      </c>
-      <c r="E42" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
         <v>109</v>
@@ -5208,13 +5453,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -5222,22 +5467,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G45">
         <v>-3</v>
@@ -5245,16 +5490,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -5262,25 +5507,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F47">
         <v>1056</v>
       </c>
       <c r="G47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H47">
         <v>-2</v>
@@ -5288,19 +5533,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F48">
         <v>1056</v>
@@ -5314,13 +5559,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -5328,22 +5573,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E50">
         <v>1408</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G50">
         <v>-3</v>
@@ -5351,22 +5596,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <v>1408</v>
       </c>
       <c r="F51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G51">
         <v>-3</v>
@@ -5374,33 +5619,33 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
         <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
         <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53">
         <v>-4</v>
@@ -5423,115 +5668,115 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>154</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>156</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>157</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>158</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>159</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>160</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>161</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>162</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>163</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>166</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>167</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>168</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>169</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>170</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>171</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>173</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>177</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>178</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>179</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>180</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>183</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -5638,13 +5883,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AL2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM2" t="s">
         <v>9</v>
@@ -5754,16 +5999,16 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -5870,16 +6115,16 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AL4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -5986,16 +6231,16 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AL5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -6102,16 +6347,16 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AL6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -6218,13 +6463,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM7" t="s">
         <v>22</v>
@@ -6334,16 +6579,16 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -6450,16 +6695,16 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -6566,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM10" t="s">
         <v>57</v>
@@ -6682,13 +6927,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM11" t="s">
         <v>34</v>
@@ -6798,16 +7043,16 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6914,16 +7159,16 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -7030,13 +7275,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM14" t="s">
         <v>15</v>
@@ -7146,16 +7391,16 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -7262,16 +7507,16 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AL16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.25">
@@ -7378,13 +7623,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM17" t="s">
         <v>13</v>
@@ -7494,13 +7739,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM18" t="s">
         <v>2</v>
@@ -7610,16 +7855,16 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.25">
@@ -7726,16 +7971,16 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AL20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.25">
@@ -7842,16 +8087,16 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AL21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.25">
@@ -7958,16 +8203,16 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AL22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.25">
@@ -8074,16 +8319,16 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AL23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.25">
@@ -8190,13 +8435,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AL24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM24" t="s">
         <v>63</v>
@@ -8306,13 +8551,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM25" t="s">
         <v>64</v>
@@ -8422,16 +8667,16 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.25">
@@ -8538,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AL27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM27" t="s">
         <v>62</v>
@@ -8654,13 +8899,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM28" t="s">
         <v>37</v>
@@ -8770,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AL29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM29" t="s">
         <v>52</v>
@@ -8886,13 +9131,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AL30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM30" t="s">
         <v>43</v>
@@ -9002,16 +9247,16 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AL31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
@@ -9118,16 +9363,16 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AL32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.25">
@@ -9234,16 +9479,16 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AL33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:39" x14ac:dyDescent="0.25">
@@ -9350,16 +9595,16 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AL34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:39" x14ac:dyDescent="0.25">
@@ -9466,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AM35" t="s">
         <v>55</v>
@@ -9498,20 +9743,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>109</v>
       </c>
       <c r="C2">
@@ -9523,7 +9768,7 @@
       <c r="A3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>104</v>
       </c>
       <c r="C3">
@@ -9535,7 +9780,7 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>105</v>
       </c>
       <c r="C4">
@@ -9546,8 +9791,8 @@
       <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>114</v>
+      <c r="B5" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -9557,7 +9802,7 @@
       <c r="A6" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>108</v>
       </c>
       <c r="C6">
@@ -9567,10 +9812,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>113</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -9578,10 +9823,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>113</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -9591,7 +9836,7 @@
       <c r="A9" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>103</v>
       </c>
       <c r="C9">
@@ -9602,7 +9847,7 @@
       <c r="A10" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C10">
@@ -9614,7 +9859,7 @@
       <c r="A11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>106</v>
       </c>
       <c r="C11">
@@ -9626,8 +9871,8 @@
       <c r="A12" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>114</v>
+      <c r="B12" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C12">
         <f>23/16</f>
@@ -9638,8 +9883,8 @@
       <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>118</v>
+      <c r="B13" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="C13">
         <v>1.5</v>
@@ -9649,7 +9894,7 @@
       <c r="A14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>101</v>
       </c>
       <c r="C14">
@@ -9661,7 +9906,7 @@
       <c r="A15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>101</v>
       </c>
       <c r="C15">
@@ -9672,7 +9917,7 @@
       <c r="A16" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>105</v>
       </c>
       <c r="C16">
@@ -9694,7 +9939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8A5B25-819B-464B-BB87-F3BC8DAC98E9}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
@@ -9709,10 +9954,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>101</v>
@@ -9720,13 +9965,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -9735,18 +9980,18 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -9754,16 +9999,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>742</v>
@@ -9772,21 +10017,21 @@
         <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>742</v>
@@ -9795,15 +10040,15 @@
         <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -9811,13 +10056,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>110</v>
@@ -9831,13 +10076,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>110</v>
@@ -9845,16 +10090,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9">
         <v>311</v>
@@ -9862,110 +10107,1026 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12">
+        <v>311</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41">
+        <v>1056</v>
+      </c>
+      <c r="G41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42">
+        <v>1056</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44">
+        <v>1408</v>
+      </c>
+      <c r="F44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45">
+        <v>1408</v>
+      </c>
+      <c r="F45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47">
+        <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A906159-56C6-43FE-A118-429812C620BA}">
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3">
+        <v>216</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5">
+        <v>311</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6">
+        <v>311</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9">
+        <v>696</v>
+      </c>
+      <c r="G9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>121</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>696</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>-2</v>
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11">
+        <v>121</v>
+      </c>
+      <c r="E11">
         <v>4</v>
       </c>
+      <c r="F11" t="s">
+        <v>195</v>
+      </c>
       <c r="G11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11">
-        <v>-2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12">
-        <v>311</v>
-      </c>
-      <c r="F12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12">
-        <v>-2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
+      <c r="D13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -9974,619 +11135,1409 @@
         <v>121</v>
       </c>
       <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15">
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16">
-        <v>-4</v>
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16">
+        <v>311</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17">
+        <v>311</v>
+      </c>
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17">
+        <v>-3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>-3</v>
+      <c r="D18">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1010</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H20">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1010</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="H21">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" t="s">
-        <v>147</v>
+        <v>119</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23">
+        <v>-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24">
+        <v>-4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
         <v>119</v>
       </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>135</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" t="s">
-        <v>132</v>
+        <v>119</v>
+      </c>
+      <c r="F29">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29">
+        <v>-4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" t="s">
-        <v>139</v>
+        <v>121</v>
+      </c>
+      <c r="F30">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30">
+        <v>-4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32">
-        <v>-3</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33">
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
         <v>121</v>
       </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34">
-        <v>-3</v>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34">
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35">
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
         <v>119</v>
       </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" t="s">
-        <v>140</v>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36">
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37">
+        <v>-4</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39">
-        <v>-3</v>
+        <v>119</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
         <v>121</v>
       </c>
-      <c r="F41">
-        <v>1056</v>
-      </c>
-      <c r="G41" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41">
-        <v>-2</v>
+      <c r="E41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F42">
-        <v>1056</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42">
-        <v>-2</v>
+        <v>203</v>
+      </c>
+      <c r="H42" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
         <v>121</v>
       </c>
-      <c r="E44">
-        <v>1408</v>
-      </c>
-      <c r="F44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44">
-        <v>-3</v>
+      <c r="D44">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E45">
-        <v>1408</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45">
-        <v>-3</v>
+        <v>142</v>
+      </c>
+      <c r="G45" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>119</v>
       </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57">
+        <v>311</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58">
+        <v>311</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>135</v>
+      </c>
+      <c r="G60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>210</v>
+      </c>
+      <c r="G61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64">
+        <v>1020</v>
+      </c>
+      <c r="F64" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65">
+        <v>1020</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68">
+        <v>780</v>
+      </c>
+      <c r="G68" t="s">
+        <v>211</v>
+      </c>
+      <c r="H68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69">
+        <v>780</v>
+      </c>
+      <c r="G69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71">
+        <v>1070</v>
+      </c>
+      <c r="G71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72">
+        <v>1070</v>
+      </c>
+      <c r="G72" t="s">
+        <v>212</v>
+      </c>
+      <c r="H72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77">
+        <v>1100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H77">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78">
+        <v>1100</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81">
+        <v>1536</v>
+      </c>
+      <c r="G81" t="s">
+        <v>141</v>
+      </c>
+      <c r="H81">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82">
+        <v>1536</v>
+      </c>
+      <c r="G82" t="s">
+        <v>142</v>
+      </c>
+      <c r="H82">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
         <v>85</v>
       </c>
-      <c r="D47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47">
+      <c r="D85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85">
         <v>-4</v>
       </c>
     </row>
